--- a/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -148,15 +150,44 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -192,10 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2507,4 +2540,1265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>7617500</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>36085703</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>63525122.2466</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>45129513.7277</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>41657426.0282</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>19637190.6967</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>53676820.2533</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>62820418.7573</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>59629598.549</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>61207186.98</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>28928278.09</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>42617123.39</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>46249411.0302</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>27518869.6183</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>48848634.0785</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>32964349.0859</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>111048838.1603</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>89053849.1274</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>100715314.6846</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>-41408993.5391</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1509679.37</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>56438</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>1541262.289</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>392809.96</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="3" t="str">
+        <f>Sum(AH2:AH3)</f>
+      </c>
+      <c r="AI4" s="3" t="str">
+        <f>Sum(AI2:AI3)</f>
+      </c>
+      <c r="AJ4" s="3" t="str">
+        <f>Sum(AJ2:AJ3)</f>
+      </c>
+      <c r="AK4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>11789884.9377497</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>54201818.230473</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>92414630.7893854</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>63894221.0862806</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>57778911.4101158</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>26961105.2409459</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>73063441.6360251</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>83826940.5619899</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>78151010.2820017</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>78789004.6619579</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>36570784.0359772</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>53323823.8225801</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>57409656.36436</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>33592284.1495119</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>58334501.6623732</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>38651023.8648515</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>128526895.536339</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>99640727.4332335</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>105322697.367436</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>-41408993.5391</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>1470410.60210511</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>59019.8463127301</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>1541262.289</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>382592.450605246</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4" t="n">
+        <v>23748.71</v>
+      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="n">
+        <v>-23748.71</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="n">
+        <v>57406</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="n">
+        <v>866809.5298</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>-492737.8985</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>36306060</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7617500</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>36085703</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>63525122.2466</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>45129513.7277</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>41657426.0282</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>19579784.6967</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>53676820.2533</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>62820418.7573</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>59629812.549</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>61183438.27</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>28928278.09</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>42640872.1</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>46249411.0302</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>27518869.6183</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>47981824.5487</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>33457086.9844</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>74742778.1603</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>89053849.1274</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>100771752.6846</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>-39867731.2501</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>1902489.33</v>
+      </c>
+      <c r="AK4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="n">
+        <v>-214</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="4" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="4" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="4" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="4" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="4" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="4" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="n">
+        <v>30570.5475978973</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4" t="n">
+        <v>-29715.0987049186</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="n">
+        <v>78816.2233267834</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4" t="n">
+        <v>1035134.40879065</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>-577740.037408669</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>42020297.1796985</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>11789884.9377497</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>54201818.230473</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>92414630.7893854</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>63894221.0862806</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>57778911.4101158</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>26882289.0176191</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>73063441.6360251</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>83826940.5619899</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>78151290.7520469</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>78758434.11436</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>36570784.0359772</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>53353538.921285</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>57409656.36436</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>33592284.1495119</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>57299367.2535825</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>39228763.9022602</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>86506598.3566404</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>99640727.4332335</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>105381717.213749</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>-39867731.2501</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>1853003.05271035</v>
+      </c>
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4" t="n">
+        <v>-280.47004520088</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -183,11 +183,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -223,12 +224,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3170,33 +3172,33 @@
       <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="n">
         <v>23748.71</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="n">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5" t="n">
         <v>-23748.71</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3211,41 +3213,41 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="n">
         <v>57406</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="n">
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5" t="n">
         <v>866809.5298</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>-492737.8985</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>36306060</v>
       </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3260,73 +3262,73 @@
       <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="n">
+      <c r="O4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="n">
         <v>7617500</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>36085703</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="5" t="n">
         <v>63525122.2466</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="5" t="n">
         <v>45129513.7277</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="5" t="n">
         <v>41657426.0282</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="5" t="n">
         <v>19579784.6967</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="5" t="n">
         <v>53676820.2533</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>62820418.7573</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>59629812.549</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>61183438.27</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>28928278.09</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>42640872.1</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>46249411.0302</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="5" t="n">
         <v>27518869.6183</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="5" t="n">
         <v>47981824.5487</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="5" t="n">
         <v>33457086.9844</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>74742778.1603</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="5" t="n">
         <v>89053849.1274</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="5" t="n">
         <v>100771752.6846</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="5" t="n">
         <v>-39867731.2501</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="5" t="n">
         <v>1902489.33</v>
       </c>
-      <c r="AK4" s="4"/>
+      <c r="AK4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3341,45 +3343,45 @@
       <c r="N5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="n">
         <v>-214</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3394,73 +3396,73 @@
       <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="5" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="5" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="5" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="5" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="5" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="T6" s="5" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="U6" s="5" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="5" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="W6" s="5" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="4" t="str">
+      <c r="X6" s="5" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="Y6" s="5" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="Z6" s="5" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AA6" s="5" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AB6" s="5" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AC6" s="5" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AD6" s="5" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AE6" s="5" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AF6" s="5" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AG6" s="5" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AH6" s="5" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="4" t="str">
+      <c r="AI6" s="5" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="4" t="str">
+      <c r="AJ6" s="5" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="4"/>
+      <c r="AK6" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3555,33 +3557,33 @@
       <c r="N10" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4" t="n">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="n">
         <v>30570.5475978973</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4" t="n">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5" t="n">
         <v>-29715.0987049186</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3596,41 +3598,41 @@
       <c r="N11" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="n">
         <v>78816.2233267834</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4" t="n">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5" t="n">
         <v>1035134.40879065</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>-577740.037408669</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>42020297.1796985</v>
       </c>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3645,73 +3647,73 @@
       <c r="N12" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="n">
+      <c r="O12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
         <v>11789884.9377497</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>54201818.230473</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>92414630.7893854</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>63894221.0862806</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>57778911.4101158</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>26882289.0176191</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>73063441.6360251</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>83826940.5619899</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>78151290.7520469</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>78758434.11436</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>36570784.0359772</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>53353538.921285</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>57409656.36436</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>33592284.1495119</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>57299367.2535825</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>39228763.9022602</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>86506598.3566404</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>99640727.4332335</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="5" t="n">
         <v>105381717.213749</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="5" t="n">
         <v>-39867731.2501</v>
       </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>1853003.05271035</v>
       </c>
-      <c r="AK12" s="4"/>
+      <c r="AK12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3726,45 +3728,45 @@
       <c r="N13" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="n">
         <v>-280.47004520088</v>
       </c>
-      <c r="Y13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3773,29 +3775,29 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/PBL/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -184,11 +184,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -226,11 +226,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
